--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T8/XKBH_DLTienLong_040822.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T8/XKBH_DLTienLong_040822.xlsx
@@ -1261,69 +1261,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1351,16 +1293,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,28 +1413,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,6 +1467,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,6 +1515,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,9 +1549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,26 +1563,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1570,26 +1608,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1599,38 +1631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1773,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1825,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1874,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1972,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2021,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2070,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2114,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2188,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,57 +2529,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="113" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="113"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="113" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2637,50 +2637,50 @@
       <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="64">
         <v>985</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="93" t="s">
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66">
         <v>2</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="64">
         <v>985</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="93" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="93"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2698,25 +2698,25 @@
       <c r="F11" s="64">
         <v>985</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93" t="s">
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="93"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66">
         <v>4</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="64" t="s">
         <v>92</v>
       </c>
@@ -2724,58 +2724,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93" t="s">
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="93"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="94" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="94" t="s">
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85" t="s">
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="85" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="114"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2838,25 +2838,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="88" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="88" t="s">
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2869,12 +2869,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2891,19 +2898,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2937,51 +2937,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="113" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="113"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="113" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3016,15 +3016,15 @@
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="101" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3033,46 +3033,46 @@
       <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="118">
         <v>6</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="116" t="s">
+      <c r="G9" s="120"/>
+      <c r="H9" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>2</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="118">
         <v>4</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="116" t="s">
+      <c r="G10" s="120"/>
+      <c r="H10" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="67" t="s">
         <v>114</v>
       </c>
@@ -3081,65 +3081,65 @@
       <c r="A11" s="67">
         <v>3</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="118">
         <v>2</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="116" t="s">
+      <c r="G11" s="120"/>
+      <c r="H11" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
       <c r="K11" s="67" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="94" t="s">
+      <c r="G13" s="111"/>
+      <c r="H13" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="114"/>
+      <c r="H14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3194,23 +3194,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="88" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88" t="s">
+      <c r="G19" s="117"/>
+      <c r="H19" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3223,6 +3223,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3232,24 +3250,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3267,7 +3267,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3284,70 +3284,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="119" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="126" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="126"/>
+      <c r="G2" s="136"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="126" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="126"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="126" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="126"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="5" spans="1:7" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="207"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
     </row>
     <row r="6" spans="1:7" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="208" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:7" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
@@ -3404,43 +3404,43 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="203"/>
-      <c r="C12" s="204" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204" t="s">
+      <c r="D12" s="127"/>
+      <c r="E12" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="204"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130" t="s">
+      <c r="D13" s="125"/>
+      <c r="E13" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="130"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="84" t="s">
         <v>6</v>
       </c>
@@ -3478,8 +3478,8 @@
       <c r="C17" s="81"/>
       <c r="D17" s="79"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="77"/>
@@ -3491,18 +3491,18 @@
       <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="205" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="205"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="79" t="s">
         <v>130</v>
       </c>
@@ -3517,19 +3517,19 @@
       <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3552,7 +3552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="J29" s="71" t="s">
         <v>91</v>
       </c>
@@ -3562,6 +3562,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="A12:B12"/>
@@ -3574,14 +3582,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3611,99 +3611,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138"/>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="135" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="113" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="113"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="113" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="113"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="113" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="113"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="101" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="68" t="s">
         <v>119</v>
       </c>
@@ -3729,36 +3729,36 @@
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132" t="s">
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="155"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150" t="s">
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="150"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3771,27 +3771,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="152"/>
+      <c r="C15" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="148"/>
+      <c r="H15" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3808,13 +3815,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3844,42 +3844,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="154" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="153"/>
+      <c r="B5" s="160"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -4118,32 +4118,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="163" t="s">
+      <c r="E37" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="163"/>
+      <c r="F37" s="170"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="151"/>
+      <c r="C38" s="158"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="151" t="s">
+      <c r="E38" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="151"/>
+      <c r="F38" s="158"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="152"/>
+      <c r="C39" s="159"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="152" t="s">
+      <c r="E39" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="152"/>
+      <c r="F39" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4188,78 +4188,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="176" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="177" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="178"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="177" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="178"/>
-      <c r="L4" s="179"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4351,58 +4351,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="168" t="s">
+      <c r="F21" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168" t="s">
+      <c r="G21" s="171"/>
+      <c r="H21" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="168" t="s">
+      <c r="I21" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="168" t="s">
+      <c r="J21" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="166" t="s">
+      <c r="K21" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="164" t="s">
+      <c r="L21" s="179" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="168"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="165"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4447,45 +4447,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151" t="s">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="H27" s="151" t="s">
+      <c r="F27" s="158"/>
+      <c r="H27" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152" t="s">
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="152"/>
-      <c r="I28" s="152" t="s">
+      <c r="F28" s="159"/>
+      <c r="I28" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="152"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,74 +4520,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="170" t="s">
+      <c r="A33" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="169" t="s">
+      <c r="A36" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4595,22 +4595,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4627,6 +4611,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4659,62 +4659,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="185" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="177" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="179"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="177" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="179"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="177" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="179"/>
+      <c r="K4" s="178"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4728,12 +4728,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="187" t="s">
+      <c r="H6" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4763,10 +4763,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="182"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4780,8 +4780,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="190"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4795,8 +4795,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="189"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4810,8 +4810,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4825,8 +4825,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="192"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4840,8 +4840,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4855,14 +4855,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="192"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4870,35 +4870,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="187"/>
+      <c r="G16" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188" t="s">
+      <c r="H16" s="187"/>
+      <c r="I16" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4910,15 +4919,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4958,48 +4958,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="177" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="177" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="179"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="177" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="179"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5045,11 +5045,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5059,174 +5059,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="198" t="s">
+      <c r="H8" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="195"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="207"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="195"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="195"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="207"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="195"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="207"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="195"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="195"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="195"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="207"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="195"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="195"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="195"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5241,42 +5241,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95" t="s">
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5286,9 +5286,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5298,9 +5298,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5310,9 +5310,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5320,6 +5320,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -5327,38 +5359,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
